--- a/public/food.xlsx
+++ b/public/food.xlsx
@@ -5,7 +5,7 @@
   <fileSharing readOnlyRecommended="0" userName="KC"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="18600" windowHeight="7620" tabRatio="500"/>
+    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="20496" windowHeight="6900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -14,17 +14,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1755538265" val="1224" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1755538265" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1755538265" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1755538265"/>
+      <pm:revision xmlns:pm="smNativeData" day="1756918163" val="1226" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1756918163" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1756918163" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1756918163"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
   <si>
     <t>name</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>notes</t>
+  </si>
+  <si>
+    <t>cross_contact</t>
   </si>
   <si>
     <t>Mediterranean Quinoa Bowl45</t>
@@ -254,7 +257,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1755538265" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1756918163" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -269,7 +272,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1755538265" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1756918163" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -285,7 +288,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1755538265" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1756918163" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -301,7 +304,7 @@
       <sz val="9"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1755538265" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1756918163" ulstyle="none" kern="1">
             <pm:latin face="Segoe UI" sz="180" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="180" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="180" lang="default" weight="bold"/>
@@ -316,7 +319,7 @@
       <sz val="9"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1755538265" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1756918163" ulstyle="none" kern="1">
             <pm:latin face="Segoe UI" sz="180" lang="default"/>
             <pm:cs face="Times New Roman" sz="180" lang="default"/>
             <pm:ea face="SimSun" sz="180" lang="default"/>
@@ -331,7 +334,7 @@
       <sz val="9"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1755538265" fgClr="28A745" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1756918163" fgClr="28A745" ulstyle="none" kern="1">
             <pm:latin face="Segoe UI" sz="180" lang="default"/>
             <pm:cs face="Times New Roman" sz="180" lang="default"/>
             <pm:ea face="SimSun" sz="180" lang="default"/>
@@ -346,7 +349,7 @@
       <sz val="8.25"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1755538265" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1756918163" ulstyle="none" kern="1">
             <pm:latin face="Segoe UI" sz="165" lang="default"/>
             <pm:cs face="Times New Roman" sz="165" lang="default"/>
             <pm:ea face="SimSun" sz="165" lang="default"/>
@@ -362,7 +365,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1755538265" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1756918163" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -378,7 +381,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1755538265" fgClr="800080" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1756918163" fgClr="800080" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -393,7 +396,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1755538265" fgClr="FF0000" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1756918163" fgClr="FF0000" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -409,7 +412,7 @@
       <sz val="18"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1755538265" fgClr="44546A" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1756918163" fgClr="44546A" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="360" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="360" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="360" lang="default" weight="bold"/>
@@ -425,7 +428,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1755538265" fgClr="7F7F7F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1756918163" fgClr="7F7F7F" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" i="1"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" i="1"/>
             <pm:ea face="SimSun" sz="220" lang="default" i="1"/>
@@ -441,7 +444,7 @@
       <sz val="15"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1755538265" fgClr="44546A" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1756918163" fgClr="44546A" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="300" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="300" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="300" lang="default" weight="bold"/>
@@ -457,7 +460,7 @@
       <sz val="13"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1755538265" fgClr="44546A" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1756918163" fgClr="44546A" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="260" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="260" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="260" lang="default" weight="bold"/>
@@ -473,7 +476,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1755538265" fgClr="44546A" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1756918163" fgClr="44546A" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -488,7 +491,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1755538265" fgClr="3F3F76" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1756918163" fgClr="3F3F76" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -504,7 +507,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1755538265" fgClr="3F3F3F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1756918163" fgClr="3F3F3F" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -520,7 +523,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1755538265" fgClr="FA7D00" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1756918163" fgClr="FA7D00" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -536,7 +539,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1755538265" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1756918163" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -551,7 +554,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1755538265" fgClr="FA7D00" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1756918163" fgClr="FA7D00" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -566,7 +569,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1755538265" fgClr="006100" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1756918163" fgClr="006100" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -581,7 +584,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1755538265" fgClr="9C0006" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1756918163" fgClr="9C0006" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -596,7 +599,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1755538265" fgClr="9C6500" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1756918163" fgClr="9C6500" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -611,7 +614,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1755538265" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1756918163" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -633,7 +636,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1755538265" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1756918163" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -650,7 +653,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1755538265" type="1" fgLvl="100" fgClr="00FFCC99" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1756918163" type="1" fgLvl="100" fgClr="00FFCC99" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -661,7 +664,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1755538265" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1756918163" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -672,7 +675,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1755538265" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1756918163" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -683,7 +686,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1755538265" type="1" fgLvl="100" fgClr="00A5A5A5" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1756918163" type="1" fgLvl="100" fgClr="00A5A5A5" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -700,7 +703,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1755538265" type="1" fgLvl="100" fgClr="00C6EFCE" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1756918163" type="1" fgLvl="100" fgClr="00C6EFCE" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -711,7 +714,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1755538265" type="1" fgLvl="100" fgClr="00FFC7CE" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1756918163" type="1" fgLvl="100" fgClr="00FFC7CE" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -722,7 +725,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1755538265" type="1" fgLvl="100" fgClr="00FFEB9C" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1756918163" type="1" fgLvl="100" fgClr="00FFEB9C" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -733,7 +736,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1755538265" type="1" fgLvl="100" fgClr="005B9BD5" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1756918163" type="1" fgLvl="100" fgClr="005B9BD5" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -744,7 +747,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1755538265" type="1" fgLvl="100" fgClr="00DDEBF7" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1756918163" type="1" fgLvl="100" fgClr="00DDEBF7" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -755,7 +758,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1755538265" type="1" fgLvl="100" fgClr="00BDD7EE" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1756918163" type="1" fgLvl="100" fgClr="00BDD7EE" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -766,7 +769,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1755538265" type="1" fgLvl="100" fgClr="009BC2E6" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1756918163" type="1" fgLvl="100" fgClr="009BC2E6" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -777,7 +780,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1755538265" type="1" fgLvl="100" fgClr="00ED7D31" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1756918163" type="1" fgLvl="100" fgClr="00ED7D31" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -788,7 +791,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1755538265" type="1" fgLvl="100" fgClr="00FBE3D5" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1756918163" type="1" fgLvl="100" fgClr="00FBE3D5" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -799,7 +802,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1755538265" type="1" fgLvl="100" fgClr="00F8CAAB" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1756918163" type="1" fgLvl="100" fgClr="00F8CAAB" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -810,7 +813,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1755538265" type="1" fgLvl="100" fgClr="00F4AF82" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1756918163" type="1" fgLvl="100" fgClr="00F4AF82" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -821,7 +824,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1755538265" type="1" fgLvl="100" fgClr="00A5A5A5" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1756918163" type="1" fgLvl="100" fgClr="00A5A5A5" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -832,7 +835,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1755538265" type="1" fgLvl="100" fgClr="00EBEBEB" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1756918163" type="1" fgLvl="100" fgClr="00EBEBEB" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -843,7 +846,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1755538265" type="1" fgLvl="100" fgClr="00D9D9D9" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1756918163" type="1" fgLvl="100" fgClr="00D9D9D9" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -854,7 +857,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1755538265" type="1" fgLvl="100" fgClr="00C7C7C7" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1756918163" type="1" fgLvl="100" fgClr="00C7C7C7" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -865,7 +868,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1755538265" type="1" fgLvl="100" fgClr="00FFC000" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1756918163" type="1" fgLvl="100" fgClr="00FFC000" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -876,7 +879,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1755538265" type="1" fgLvl="100" fgClr="00FFF2CA" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1756918163" type="1" fgLvl="100" fgClr="00FFF2CA" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -887,7 +890,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1755538265" type="1" fgLvl="100" fgClr="00FFE697" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1756918163" type="1" fgLvl="100" fgClr="00FFE697" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -898,7 +901,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1755538265" type="1" fgLvl="100" fgClr="00FFD964" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1756918163" type="1" fgLvl="100" fgClr="00FFD964" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -909,7 +912,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1755538265" type="1" fgLvl="100" fgClr="004472C4" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1756918163" type="1" fgLvl="100" fgClr="004472C4" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -920,7 +923,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1755538265" type="1" fgLvl="100" fgClr="00D9E1F2" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1756918163" type="1" fgLvl="100" fgClr="00D9E1F2" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -931,7 +934,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1755538265" type="1" fgLvl="100" fgClr="00B4C6E7" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1756918163" type="1" fgLvl="100" fgClr="00B4C6E7" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -942,7 +945,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1755538265" type="1" fgLvl="100" fgClr="008EA9DB" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1756918163" type="1" fgLvl="100" fgClr="008EA9DB" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -953,7 +956,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1755538265" type="1" fgLvl="100" fgClr="0070AD47" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1756918163" type="1" fgLvl="100" fgClr="0070AD47" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -964,7 +967,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1755538265" type="1" fgLvl="100" fgClr="00E1EFD8" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1756918163" type="1" fgLvl="100" fgClr="00E1EFD8" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -975,7 +978,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1755538265" type="1" fgLvl="100" fgClr="00C5DFB3" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1756918163" type="1" fgLvl="100" fgClr="00C5DFB3" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -986,7 +989,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1755538265" type="1" fgLvl="100" fgClr="00A8D08C" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1756918163" type="1" fgLvl="100" fgClr="00A8D08C" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -997,7 +1000,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1755538265" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1756918163" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1008,7 +1011,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1755538265" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1756918163" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1030,7 +1033,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1755538265"/>
+          <pm:border xmlns:pm="smNativeData" id="1756918163"/>
         </ext>
       </extLst>
     </border>
@@ -1049,7 +1052,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1755538265">
+          <pm:border xmlns:pm="smNativeData" id="1756918163">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
@@ -1073,7 +1076,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1755538265">
+          <pm:border xmlns:pm="smNativeData" id="1756918163">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="5B9BD5"/>
           </pm:border>
         </ext>
@@ -1094,7 +1097,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1755538265">
+          <pm:border xmlns:pm="smNativeData" id="1756918163">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="ACCCEA"/>
           </pm:border>
         </ext>
@@ -1115,7 +1118,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1755538265">
+          <pm:border xmlns:pm="smNativeData" id="1756918163">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
@@ -1139,7 +1142,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1755538265">
+          <pm:border xmlns:pm="smNativeData" id="1756918163">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
@@ -1163,7 +1166,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1755538265">
+          <pm:border xmlns:pm="smNativeData" id="1756918163">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
@@ -1187,7 +1190,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1755538265">
+          <pm:border xmlns:pm="smNativeData" id="1756918163">
             <pm:line position="top" type="2" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="left" type="2" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
@@ -1211,7 +1214,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1755538265">
+          <pm:border xmlns:pm="smNativeData" id="1756918163">
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="FF8001"/>
           </pm:border>
         </ext>
@@ -1232,7 +1235,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1755538265">
+          <pm:border xmlns:pm="smNativeData" id="1756918163">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="5B9BD5"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="5B9BD5"/>
           </pm:border>
@@ -1254,7 +1257,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1755538265"/>
+          <pm:border xmlns:pm="smNativeData" id="1756918163"/>
         </ext>
       </extLst>
     </border>
@@ -1273,7 +1276,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1755538265"/>
+          <pm:border xmlns:pm="smNativeData" id="1756918163"/>
         </ext>
       </extLst>
     </border>
@@ -1292,7 +1295,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1755538265"/>
+          <pm:border xmlns:pm="smNativeData" id="1756918163"/>
         </ext>
       </extLst>
     </border>
@@ -1311,7 +1314,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1755538265"/>
+          <pm:border xmlns:pm="smNativeData" id="1756918163"/>
         </ext>
       </extLst>
     </border>
@@ -1330,7 +1333,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1755538265"/>
+          <pm:border xmlns:pm="smNativeData" id="1756918163"/>
         </ext>
       </extLst>
     </border>
@@ -1349,7 +1352,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1755538265"/>
+          <pm:border xmlns:pm="smNativeData" id="1756918163"/>
         </ext>
       </extLst>
     </border>
@@ -1368,7 +1371,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1755538265"/>
+          <pm:border xmlns:pm="smNativeData" id="1756918163"/>
         </ext>
       </extLst>
     </border>
@@ -1387,7 +1390,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1755538265"/>
+          <pm:border xmlns:pm="smNativeData" id="1756918163"/>
         </ext>
       </extLst>
     </border>
@@ -1406,7 +1409,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1755538265"/>
+          <pm:border xmlns:pm="smNativeData" id="1756918163"/>
         </ext>
       </extLst>
     </border>
@@ -1425,7 +1428,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1755538265"/>
+          <pm:border xmlns:pm="smNativeData" id="1756918163"/>
         </ext>
       </extLst>
     </border>
@@ -1444,7 +1447,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1755538265"/>
+          <pm:border xmlns:pm="smNativeData" id="1756918163"/>
         </ext>
       </extLst>
     </border>
@@ -1463,7 +1466,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1755538265"/>
+          <pm:border xmlns:pm="smNativeData" id="1756918163"/>
         </ext>
       </extLst>
     </border>
@@ -1482,7 +1485,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1755538265"/>
+          <pm:border xmlns:pm="smNativeData" id="1756918163"/>
         </ext>
       </extLst>
     </border>
@@ -1501,7 +1504,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1755538265"/>
+          <pm:border xmlns:pm="smNativeData" id="1756918163"/>
         </ext>
       </extLst>
     </border>
@@ -1520,7 +1523,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1755538265"/>
+          <pm:border xmlns:pm="smNativeData" id="1756918163"/>
         </ext>
       </extLst>
     </border>
@@ -1539,7 +1542,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1755538265"/>
+          <pm:border xmlns:pm="smNativeData" id="1756918163"/>
         </ext>
       </extLst>
     </border>
@@ -1558,7 +1561,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1755538265"/>
+          <pm:border xmlns:pm="smNativeData" id="1756918163"/>
         </ext>
       </extLst>
     </border>
@@ -1577,7 +1580,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1755538265"/>
+          <pm:border xmlns:pm="smNativeData" id="1756918163"/>
         </ext>
       </extLst>
     </border>
@@ -1596,7 +1599,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1755538265"/>
+          <pm:border xmlns:pm="smNativeData" id="1756918163"/>
         </ext>
       </extLst>
     </border>
@@ -1615,7 +1618,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1755538265"/>
+          <pm:border xmlns:pm="smNativeData" id="1756918163"/>
         </ext>
       </extLst>
     </border>
@@ -1634,7 +1637,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1755538265"/>
+          <pm:border xmlns:pm="smNativeData" id="1756918163"/>
         </ext>
       </extLst>
     </border>
@@ -1653,7 +1656,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1755538265"/>
+          <pm:border xmlns:pm="smNativeData" id="1756918163"/>
         </ext>
       </extLst>
     </border>
@@ -1672,7 +1675,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1755538265"/>
+          <pm:border xmlns:pm="smNativeData" id="1756918163"/>
         </ext>
       </extLst>
     </border>
@@ -1691,7 +1694,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1755538265"/>
+          <pm:border xmlns:pm="smNativeData" id="1756918163"/>
         </ext>
       </extLst>
     </border>
@@ -1710,7 +1713,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1755538265"/>
+          <pm:border xmlns:pm="smNativeData" id="1756918163"/>
         </ext>
       </extLst>
     </border>
@@ -1729,7 +1732,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1755538265"/>
+          <pm:border xmlns:pm="smNativeData" id="1756918163"/>
         </ext>
       </extLst>
     </border>
@@ -1748,7 +1751,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1755538265"/>
+          <pm:border xmlns:pm="smNativeData" id="1756918163"/>
         </ext>
       </extLst>
     </border>
@@ -1767,7 +1770,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1755538265"/>
+          <pm:border xmlns:pm="smNativeData" id="1756918163"/>
         </ext>
       </extLst>
     </border>
@@ -1786,7 +1789,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1755538265">
+          <pm:border xmlns:pm="smNativeData" id="1756918163">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="EEEEEE"/>
           </pm:border>
         </ext>
@@ -2163,10 +2166,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1755538265" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1756918163" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1755538265" count="43">
+      <pm:colors xmlns:pm="smNativeData" id="1756918163" count="43">
         <pm:color name="Color 24" rgb="28A745"/>
         <pm:color name="Color 25" rgb="800080"/>
         <pm:color name="Color 26" rgb="44546A"/>
@@ -2472,19 +2475,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.40"/>
   <cols>
     <col min="9" max="9" width="12.000000" customWidth="1"/>
     <col min="15" max="15" width="8.857143" customWidth="1"/>
+    <col min="16" max="16" width="11.937500" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="49" customFormat="1">
+    <row r="1" spans="1:16" s="49" customFormat="1">
       <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
@@ -2530,52 +2534,58 @@
       <c r="O1" s="50" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="49" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" s="51" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="53" t="n">
         <v>14.9900000000000002</v>
       </c>
       <c r="E2" s="54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" s="54" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G2" s="54" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H2" s="52" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" s="52" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" s="52" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" s="52" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L2" s="52" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M2" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" t="s">
         <v>26</v>
-      </c>
-      <c r="N2" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="52" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2592,7 +2602,7 @@
     <dataValidation sqref="H2:H498" type="list" operator="between" errorStyle="stop" allowBlank="1" showInputMessage="1" showErrorMessage="1" view="0">
       <formula1>Sheet2!$B$2:$B$4</formula1>
     </dataValidation>
-    <dataValidation sqref="L2:L498" type="list" operator="between" errorStyle="stop" allowBlank="1" showInputMessage="1" showErrorMessage="1" view="0">
+    <dataValidation sqref="P2 L2:L498" type="list" operator="between" errorStyle="stop" allowBlank="1" showInputMessage="1" showErrorMessage="1" view="0">
       <formula1>Sheet2!$H$2:$H$3</formula1>
     </dataValidation>
     <dataValidation sqref="I2:I575" type="list" operator="between" errorStyle="stop" allowBlank="1" showInputMessage="1" showErrorMessage="1" view="0">
@@ -2614,7 +2624,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1755538265" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1756918163" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2623,16 +2633,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1755538265" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1755538265" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1755538265" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1755538265" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1756918163" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1756918163" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1756918163" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1756918163" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1755538265" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1756918163" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2646,7 +2656,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView view="normal" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H2" sqref="H2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.40"/>
@@ -2663,196 +2673,196 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="3:4">
       <c r="C10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="3:3">
       <c r="C11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1755538265" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1756918163" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2861,16 +2871,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1755538265" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1755538265" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1755538265" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1755538265" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1756918163" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1756918163" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1756918163" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1756918163" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1755538265" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1756918163" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
